--- a/excel_input_datos_formato/Formato envio correos.xlsx
+++ b/excel_input_datos_formato/Formato envio correos.xlsx
@@ -8,19 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BCP - Effio\Documents\Envio-auto-de-correos-outlook\excel_input_datos_formato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A688763-CA64-4DA9-94EC-B79C43F9219B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A2FBFE-0F4A-46BF-8002-5D48697EEB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BASE" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja3" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="110">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -37,52 +51,319 @@
     <t>EMAIL_LIDER</t>
   </si>
   <si>
+    <t>PROGRAMA</t>
+  </si>
+  <si>
+    <t>DIA_MES_INICIO</t>
+  </si>
+  <si>
+    <t>DIA_MES_DEADLINE</t>
+  </si>
+  <si>
+    <t>Learning Journey Q4</t>
+  </si>
+  <si>
+    <t>LIDER</t>
+  </si>
+  <si>
     <t>E22849</t>
   </si>
   <si>
-    <t>ricardoleon@bcp.com.pe</t>
+    <t>ammedina@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>MARTIN IRVING MANRIQUE FLORES</t>
+  </si>
+  <si>
+    <t>martinmanrique@bcp.com.pe; danieldelgadof@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>30 de enero</t>
+  </si>
+  <si>
+    <t>T18547</t>
+  </si>
+  <si>
+    <t>dianaechavez@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>ALBERTO LUIS ALFONSO MAC LEOD MONTOYA</t>
+  </si>
+  <si>
+    <t>amacleod@bcp.com.pe; danieldelgadof@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>T11999</t>
+  </si>
+  <si>
+    <t>gustavolopez@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>Gustavo</t>
+  </si>
+  <si>
+    <t>U20087</t>
+  </si>
+  <si>
+    <t>jesuspachecoc@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>Jesus</t>
+  </si>
+  <si>
+    <t>T11301</t>
+  </si>
+  <si>
+    <t>juanalfaro@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>S71514</t>
+  </si>
+  <si>
+    <t>mpalomino@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>Miguel</t>
+  </si>
+  <si>
+    <t>S92879</t>
+  </si>
+  <si>
+    <t>pelguera@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>EDUARDO CECILIO PEREZ CHAVEZ</t>
+  </si>
+  <si>
+    <t>eperez@bcp.com.pe; danieldelgadof@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>S09541</t>
+  </si>
+  <si>
+    <t>rlaines@bcp.com.pe</t>
   </si>
   <si>
     <t>Ricardo</t>
   </si>
   <si>
-    <t>luislopez@bcp.com.pe</t>
-  </si>
-  <si>
-    <t>U20087</t>
-  </si>
-  <si>
-    <t>danieldelgadof@bcp.com.pe</t>
-  </si>
-  <si>
-    <t>Daniel</t>
-  </si>
-  <si>
-    <t>U20034</t>
-  </si>
-  <si>
-    <t>andrepisco@bcp.com.pe</t>
-  </si>
-  <si>
-    <t>Andre</t>
-  </si>
-  <si>
-    <t>PROGRAMA</t>
-  </si>
-  <si>
-    <t>Learning Journal</t>
-  </si>
-  <si>
-    <t>DIA_MES_INICIO</t>
-  </si>
-  <si>
-    <t>DIA_MES_DEADLINE</t>
-  </si>
-  <si>
-    <t>30 de enero</t>
-  </si>
-  <si>
-    <t>1 de diciembre</t>
+    <t>T00006</t>
+  </si>
+  <si>
+    <t>ronyquirozc@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>Rony</t>
+  </si>
+  <si>
+    <t>S95832</t>
+  </si>
+  <si>
+    <t>juancasusol@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>RONNY ARNOLD CUZCANO MACALUPU</t>
+  </si>
+  <si>
+    <t>rcuzcano@bcp.com.pe; danieldelgadof@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>T09891</t>
+  </si>
+  <si>
+    <t>josedamian@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>Jose</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS SILVA SANTISTEBAN ALEGRE</t>
+  </si>
+  <si>
+    <t>jsilvasantisteban@bcp.com.pe; danieldelgadof@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>U19924</t>
+  </si>
+  <si>
+    <t>pledesma@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>Paola</t>
+  </si>
+  <si>
+    <t>FAUSTO KOYZUMI SORIANO TOYAMA</t>
+  </si>
+  <si>
+    <t>faustosorianot@bcp.com.pe; danieldelgadof@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>T17667</t>
+  </si>
+  <si>
+    <t>luischalco@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>T22549</t>
+  </si>
+  <si>
+    <t>rubenyman@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>Ruben</t>
+  </si>
+  <si>
+    <t>T10529</t>
+  </si>
+  <si>
+    <t>oscarurbano@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>Oscar</t>
+  </si>
+  <si>
+    <t>S03329</t>
+  </si>
+  <si>
+    <t>amacleod@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>Alberto</t>
+  </si>
+  <si>
+    <t>U10438</t>
+  </si>
+  <si>
+    <t>eperez@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>Eduardo</t>
+  </si>
+  <si>
+    <t>T15681</t>
+  </si>
+  <si>
+    <t>gianwong@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>Gian</t>
+  </si>
+  <si>
+    <t>T03358</t>
+  </si>
+  <si>
+    <t>angellduran@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>Angel</t>
+  </si>
+  <si>
+    <t>T10966</t>
+  </si>
+  <si>
+    <t>juantipismana@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>S95262</t>
+  </si>
+  <si>
+    <t>martinmanrique@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>S38226</t>
+  </si>
+  <si>
+    <t>chtineo@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>S07984</t>
+  </si>
+  <si>
+    <t>flaviapachasp@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>Flavia</t>
+  </si>
+  <si>
+    <t>U18953</t>
+  </si>
+  <si>
+    <t>omontejo@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>S35305</t>
+  </si>
+  <si>
+    <t>mcarnero@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>Marcos</t>
+  </si>
+  <si>
+    <t>S05151</t>
+  </si>
+  <si>
+    <t>emolero@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>Edwin</t>
+  </si>
+  <si>
+    <t>S24629</t>
+  </si>
+  <si>
+    <t>robinzeaa@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
+    <t>T14473</t>
+  </si>
+  <si>
+    <t>carlosacordova@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>U20403</t>
+  </si>
+  <si>
+    <t>rcuzcano@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>Ronny</t>
+  </si>
+  <si>
+    <t>S87263</t>
+  </si>
+  <si>
+    <t>hagapito@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>Henry</t>
   </si>
 </sst>
 </file>
@@ -528,7 +809,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -571,12 +852,13 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -612,6 +894,7 @@
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Porcentaje" xfId="42" builtinId="5"/>
     <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -930,10 +1213,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="A2" sqref="A2:I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,14 +1225,14 @@
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -963,98 +1246,818 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
       <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
-        <v>10</v>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16E7B3F-B0C9-43DB-B942-E760334BE542}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel_input_datos_formato/Formato envio correos.xlsx
+++ b/excel_input_datos_formato/Formato envio correos.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BCP - Effio\Documents\Envio-auto-de-correos-outlook\excel_input_datos_formato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3730AB-B38C-46D5-BBE4-4FFCFFB145EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DAE932-46B0-492F-A78F-C2D400B381E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BASE" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="141">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -98,20 +99,371 @@
     <t>Rossmery</t>
   </si>
   <si>
-    <t>borissinchec@bcp.com.pe; danieldelgadof@bcp.com.pe; juanrebolledo@bcp.com.pe</t>
-  </si>
-  <si>
-    <t>borissinchec@bcp.com.pe; danieldelgadof@bcp.com.pe; jyupanqui@bcp.com.pe</t>
-  </si>
-  <si>
     <t>CURSOS_FALTANTES</t>
+  </si>
+  <si>
+    <t>S71530</t>
+  </si>
+  <si>
+    <t>S72995</t>
+  </si>
+  <si>
+    <t>T12900</t>
+  </si>
+  <si>
+    <t>U20872</t>
+  </si>
+  <si>
+    <t>T07207</t>
+  </si>
+  <si>
+    <t>T07206</t>
+  </si>
+  <si>
+    <t>T19492</t>
+  </si>
+  <si>
+    <t>T26024</t>
+  </si>
+  <si>
+    <t>T12244</t>
+  </si>
+  <si>
+    <t>T27140</t>
+  </si>
+  <si>
+    <t>T09561</t>
+  </si>
+  <si>
+    <t>T07649</t>
+  </si>
+  <si>
+    <t>T18516</t>
+  </si>
+  <si>
+    <t>S11285</t>
+  </si>
+  <si>
+    <t>hcaparachin@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>cdominguezn@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>jackalvarez@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>sredondo@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>renzonmoreno@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>carlosatarazona@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>axelspolo@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>russelcollado@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>carlosangeles@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>christiancumpenc@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>juanfespinoza@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>benjamingmontoya@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>geraldhinojoza@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>vguimarey@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>Luis Palomino</t>
+  </si>
+  <si>
+    <t>Miguel Paredes</t>
+  </si>
+  <si>
+    <t>Ricardo Mini</t>
+  </si>
+  <si>
+    <t>Roger Rodriguez</t>
+  </si>
+  <si>
+    <t>Sttefany Regalado</t>
+  </si>
+  <si>
+    <t>borissinchec@bcp.com.pe; danieldelgadof@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>luispalomino@bcp.com.pe; danieldelgadof@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>miguelparedesm@bcp.com.pe; danieldelgadof@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>rmini@bcp.com.pe; danieldelgadof@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>rogerrodriguezs@bcp.com.pe; danieldelgadof@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>sregalado@bcp.com.pe; danieldelgadof@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>S21058</t>
+  </si>
+  <si>
+    <t>T07215</t>
+  </si>
+  <si>
+    <t>S05460</t>
+  </si>
+  <si>
+    <t>S37236</t>
+  </si>
+  <si>
+    <t>borissinchec@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>leydilangelino@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>renatosalass@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>jhoncasasr@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>Erick Salazar</t>
+  </si>
+  <si>
+    <t>Michael Larico</t>
+  </si>
+  <si>
+    <t>ericksalazar@bcp.com.pe; danieldelgadof@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>mlarico@bcp.com.pe; danieldelgadof@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Rebolledo</t>
+  </si>
+  <si>
+    <t>Velasquez</t>
+  </si>
+  <si>
+    <t>Torrealva</t>
+  </si>
+  <si>
+    <t>Mercedes</t>
+  </si>
+  <si>
+    <t>Salvatierra</t>
+  </si>
+  <si>
+    <t>Barrantes</t>
+  </si>
+  <si>
+    <t>Hector</t>
+  </si>
+  <si>
+    <t>Eduardo</t>
+  </si>
+  <si>
+    <t>Caparachin</t>
+  </si>
+  <si>
+    <t>Lau</t>
+  </si>
+  <si>
+    <t>Cesar</t>
+  </si>
+  <si>
+    <t>Alexis</t>
+  </si>
+  <si>
+    <t>Dominguez</t>
+  </si>
+  <si>
+    <t>Nonalaya</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Alvis</t>
+  </si>
+  <si>
+    <t>Alvarez</t>
+  </si>
+  <si>
+    <t>Soto</t>
+  </si>
+  <si>
+    <t>Sofia</t>
+  </si>
+  <si>
+    <t>Araceli</t>
+  </si>
+  <si>
+    <t>Redondo</t>
+  </si>
+  <si>
+    <t>Santos</t>
+  </si>
+  <si>
+    <t>Renzo</t>
+  </si>
+  <si>
+    <t>Moreno</t>
+  </si>
+  <si>
+    <t>Ayala</t>
+  </si>
+  <si>
+    <t>Alberto</t>
+  </si>
+  <si>
+    <t>Tarazona</t>
+  </si>
+  <si>
+    <t>Arrasco</t>
+  </si>
+  <si>
+    <t>Axel</t>
+  </si>
+  <si>
+    <t>Sebastian</t>
+  </si>
+  <si>
+    <t>Polo</t>
+  </si>
+  <si>
+    <t>Castillo</t>
+  </si>
+  <si>
+    <t>Russel</t>
+  </si>
+  <si>
+    <t>Collado</t>
+  </si>
+  <si>
+    <t>Vidal</t>
+  </si>
+  <si>
+    <t>Angeles</t>
+  </si>
+  <si>
+    <t>Ramos</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>Cumpen</t>
+  </si>
+  <si>
+    <t>Cuya</t>
+  </si>
+  <si>
+    <t>Fredy</t>
+  </si>
+  <si>
+    <t>Espinoza</t>
+  </si>
+  <si>
+    <t>Rojas</t>
+  </si>
+  <si>
+    <t>Benjamin</t>
+  </si>
+  <si>
+    <t>Montoya</t>
+  </si>
+  <si>
+    <t>Bojorquez</t>
+  </si>
+  <si>
+    <t>Gerald</t>
+  </si>
+  <si>
+    <t>Lorenzo</t>
+  </si>
+  <si>
+    <t>Hinojoza</t>
+  </si>
+  <si>
+    <t>Valdez</t>
+  </si>
+  <si>
+    <t>Victor</t>
+  </si>
+  <si>
+    <t>Antonio</t>
+  </si>
+  <si>
+    <t>Guimarey</t>
+  </si>
+  <si>
+    <t>Reyes</t>
+  </si>
+  <si>
+    <t>Boris</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
+    <t>Sinche</t>
+  </si>
+  <si>
+    <t>Leydi</t>
+  </si>
+  <si>
+    <t>Lizzeth</t>
+  </si>
+  <si>
+    <t>Angelino</t>
+  </si>
+  <si>
+    <t>Valenzuela</t>
+  </si>
+  <si>
+    <t>Renato</t>
+  </si>
+  <si>
+    <t>Salas</t>
+  </si>
+  <si>
+    <t>Jhon</t>
+  </si>
+  <si>
+    <t>Clening</t>
+  </si>
+  <si>
+    <t>Casas</t>
+  </si>
+  <si>
+    <t>Romero</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +600,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -595,9 +954,12 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -946,7 +1308,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -954,10 +1316,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,7 +1329,7 @@
     <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="86.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
@@ -1003,7 +1365,7 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1013,7 +1375,7 @@
       <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1">
@@ -1023,7 +1385,7 @@
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -1039,7 +1401,7 @@
       <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="1">
@@ -1049,7 +1411,7 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -1065,7 +1427,7 @@
       <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="1">
@@ -1075,7 +1437,7 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -1085,104 +1447,767 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="E15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D29" s="1"/>
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="E16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="E18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.90476190476190477</v>
+      </c>
+      <c r="E19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="E20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="E21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="E22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B12" r:id="rId1" xr:uid="{0CEA6CD3-5615-45E8-8C2B-40F415B3E51A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB3A7FCA-402D-4066-99CB-722F8D2E02CB}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel_input_datos_formato/Formato envio correos.xlsx
+++ b/excel_input_datos_formato/Formato envio correos.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BCP Effio\Documents\Envio-auto-de-correos-outlook\excel_input_datos_formato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41919099-999C-4902-BC0F-2A10A2DDE2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5619C1-9C54-4EEA-B6E2-4F691796ECA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BASE" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BASE!$A$1:$E$25</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="108">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -41,59 +44,329 @@
     <t>EMAIL</t>
   </si>
   <si>
-    <t>NOMBRE_COMPLETO</t>
+    <t>LIDER</t>
+  </si>
+  <si>
+    <t>TM_PENDIENTES_EVALUAR</t>
+  </si>
+  <si>
+    <t>carlosmunozg@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>dserrano@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>schavezr@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>pvarillas@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>fernandogomezj@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>jpoquioma@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>carlosgutierrezr@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>jhonalvarez@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>franklinromerom@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>danilomendoza@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>christianmramos@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>jonathanchoy@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>renzoosanchez@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>daniellarojas@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>jorgemayorga@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>jordinymontanez@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>edwinmunoz@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>washingtonquerol@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>eduardosausurin@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>tomasgonzalez@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>edgardalva@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>ivangarcia@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>calderete@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>T27125</t>
+  </si>
+  <si>
+    <t>T28462</t>
+  </si>
+  <si>
+    <t>Giancarlo Mairim Lopez Milla</t>
+  </si>
+  <si>
+    <t>E15642</t>
+  </si>
+  <si>
+    <t>E16891</t>
+  </si>
+  <si>
+    <t>S00823</t>
+  </si>
+  <si>
+    <t>S02264</t>
+  </si>
+  <si>
+    <t>S19527</t>
+  </si>
+  <si>
+    <t>S62040</t>
+  </si>
+  <si>
+    <t>S92895</t>
+  </si>
+  <si>
+    <t>S97933</t>
+  </si>
+  <si>
+    <t>S98792</t>
+  </si>
+  <si>
+    <t>T00739</t>
+  </si>
+  <si>
+    <t>T03842</t>
+  </si>
+  <si>
+    <t>T04803</t>
+  </si>
+  <si>
+    <t>T10540</t>
+  </si>
+  <si>
+    <t>T12526</t>
+  </si>
+  <si>
+    <t>T17438</t>
+  </si>
+  <si>
+    <t>T19788</t>
+  </si>
+  <si>
+    <t>T24467</t>
+  </si>
+  <si>
+    <t>T30402</t>
+  </si>
+  <si>
+    <t>T30864</t>
+  </si>
+  <si>
+    <t>T31403</t>
+  </si>
+  <si>
+    <t>U21691</t>
+  </si>
+  <si>
+    <t>EMAIL_CAL</t>
+  </si>
+  <si>
+    <t>Joseph Campos Gilvonio</t>
+  </si>
+  <si>
+    <t>Sandy Paola Troncos Valencia</t>
+  </si>
+  <si>
+    <t>Junior Mariano Carrión Rodríguez</t>
+  </si>
+  <si>
+    <t>Diego David Bermudez Rodriguez</t>
+  </si>
+  <si>
+    <t>Diego Alonso Reyes Molina</t>
+  </si>
+  <si>
+    <t>Eloy Ivan Solano Coello</t>
+  </si>
+  <si>
+    <t>Andre Robinson Yataco Lermo</t>
+  </si>
+  <si>
+    <t>Christian Italo Espinoza Ochoa</t>
+  </si>
+  <si>
+    <t>Frans Juan Valdivia Chavez</t>
+  </si>
+  <si>
+    <t>Gustavo Elmer Meza Nuñez</t>
+  </si>
+  <si>
+    <t>T06901</t>
+  </si>
+  <si>
+    <t>victormespinoza@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Silvana</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Fernando</t>
+  </si>
+  <si>
+    <t>Jeysson</t>
+  </si>
+  <si>
+    <t>Jhon</t>
+  </si>
+  <si>
+    <t>Franklin</t>
+  </si>
+  <si>
+    <t>Danilo</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>Jonathan</t>
+  </si>
+  <si>
+    <t>Victor</t>
+  </si>
+  <si>
+    <t>Renzo</t>
+  </si>
+  <si>
+    <t>Daniella</t>
+  </si>
+  <si>
+    <t>Jorge</t>
+  </si>
+  <si>
+    <t>Jordiny</t>
+  </si>
+  <si>
+    <t>Edwin</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Eduardo</t>
+  </si>
+  <si>
+    <t>Tomás</t>
+  </si>
+  <si>
+    <t>Edgard</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>Carmela</t>
+  </si>
+  <si>
+    <t>Luis Alfonso Quispe Aylas // Jefferson Francisco Santos Centeno</t>
+  </si>
+  <si>
+    <t>Wilcos Jhon Condor Pucuhuayla // Wilmar Rafael Muñoz Bravo</t>
+  </si>
+  <si>
+    <t>Juan Manuel Vasquez Fonseca // Jose Alonso Rosas Gamarra</t>
+  </si>
+  <si>
+    <t>Julio Nicolas Juarez Moran // Renny Donny Rodriguez Espinoza // Richar Marvin Fernández Vilchez</t>
+  </si>
+  <si>
+    <t>Eloy Eduardo Santillan Caballero // Pedro Rafael Bedoya Marrugo // Gonzalo Emilio Salas Seguel</t>
+  </si>
+  <si>
+    <t>Marcos Enrique Morales Angulo</t>
+  </si>
+  <si>
+    <t>Marco Boris Maquera Quispe</t>
+  </si>
+  <si>
+    <t>Washington Junior Querol De La Serna // Edgar Mauricio Salamanca Pedraza</t>
+  </si>
+  <si>
+    <t>Evelyn Daniela Sariego Rivera // Edwin Jhon Vásquez Mondragón // Giancarlo Renato Palomino Huallpa</t>
+  </si>
+  <si>
+    <t>Luis Fernando Chavez Lucich // Raul Gustavo Pacheco Nuñez // Gino Reyna Bellido</t>
+  </si>
+  <si>
+    <t>Rodol Harry Coa Limasca // Guadalupe Carranza Villa</t>
+  </si>
+  <si>
+    <t>Gustavo Adolfo Vielma Anaya // Giancarlo Alejandro Manzano Juárez</t>
+  </si>
+  <si>
+    <t>Eduardo Sausurin Nn // Daniel Hernando Olarte Bohorquez // Anggelo Marccelo Urso Goddard</t>
+  </si>
+  <si>
+    <t>mbravo@bcp.com.pe; valeriaroman@bcp.com.pe; jmazuelos@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>daniellarojas@bcp.com.pe; valeriaroman@bcp.com.pe; mbravo@bcp.com.pe; jmazuelos@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>renzoosanchez@bcp.com.pe; valeriaroman@bcp.com.pe; mbravo@bcp.com.pe; jmazuelos@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>carlosmunozg@bcp.com.pe; valeriaroman@bcp.com.pe; mbravo@bcp.com.pe; jmazuelos@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>calderete@bcp.com.pe; valeriaroman@bcp.com.pe; mbravo@bcp.com.pe; jmazuelos@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>joelretuertoo@bcp.com.pe; valeriaroman@bcp.com.pe; mbravo@bcp.com.pe; jmazuelos@bcp.com.pe</t>
+  </si>
+  <si>
+    <t>tomasgonzalez@bcp.com.pe; valeriaroman@bcp.com.pe; mbravo@bcp.com.pe; jmazuelos@bcp.com.pe</t>
   </si>
   <si>
     <t>PORCENTAJE_AVANCE</t>
-  </si>
-  <si>
-    <t>EMAIL_LIDER</t>
-  </si>
-  <si>
-    <t>PROGRAMA</t>
-  </si>
-  <si>
-    <t>DIA_MES_INICIO</t>
-  </si>
-  <si>
-    <t>DIA_MES_DEADLINE</t>
-  </si>
-  <si>
-    <t>LIDER</t>
-  </si>
-  <si>
-    <t>Lunes 13 de Marzo</t>
-  </si>
-  <si>
-    <t>TM_PENDIENTES_EVALUAR</t>
-  </si>
-  <si>
-    <t>T04201</t>
-  </si>
-  <si>
-    <t>martinnino@bcp.com.pe</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>valeriaroman@bcp.com.pe</t>
-  </si>
-  <si>
-    <t>jmazuelos@bcp.com.pe</t>
-  </si>
-  <si>
-    <t>Jennyfer</t>
-  </si>
-  <si>
-    <t>Valeria</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,21 +503,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -547,7 +805,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="44">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -590,21 +848,11 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="43"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="44">
+  <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -636,12 +884,10 @@
     <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Hipervínculo" xfId="43" builtinId="8"/>
     <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Porcentaje" xfId="42" builtinId="5"/>
     <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -960,27 +1206,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="95.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="93.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -991,77 +1232,426 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="F2" s="3"/>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="I3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" t="s">
-        <v>9</v>
+      <c r="C16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{3DC66A94-DC54-4B6A-AF9D-C1343886E739}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel_input_datos_formato/Formato envio correos.xlsx
+++ b/excel_input_datos_formato/Formato envio correos.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BCP Effio\Documents\Envio-auto-de-correos-outlook\excel_input_datos_formato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5619C1-9C54-4EEA-B6E2-4F691796ECA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EB989B-B7FF-485C-A6EA-3F062C98AA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BASE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BASE!$A$1:$E$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BASE!$A$1:$C$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>MATRICULA</t>
   </si>
@@ -44,329 +44,23 @@
     <t>EMAIL</t>
   </si>
   <si>
-    <t>LIDER</t>
-  </si>
-  <si>
-    <t>TM_PENDIENTES_EVALUAR</t>
-  </si>
-  <si>
-    <t>carlosmunozg@bcp.com.pe</t>
-  </si>
-  <si>
-    <t>dserrano@bcp.com.pe</t>
-  </si>
-  <si>
-    <t>schavezr@bcp.com.pe</t>
-  </si>
-  <si>
-    <t>pvarillas@bcp.com.pe</t>
-  </si>
-  <si>
-    <t>fernandogomezj@bcp.com.pe</t>
-  </si>
-  <si>
-    <t>jpoquioma@bcp.com.pe</t>
-  </si>
-  <si>
-    <t>carlosgutierrezr@bcp.com.pe</t>
-  </si>
-  <si>
-    <t>jhonalvarez@bcp.com.pe</t>
-  </si>
-  <si>
-    <t>franklinromerom@bcp.com.pe</t>
-  </si>
-  <si>
-    <t>danilomendoza@bcp.com.pe</t>
-  </si>
-  <si>
-    <t>christianmramos@bcp.com.pe</t>
-  </si>
-  <si>
-    <t>jonathanchoy@bcp.com.pe</t>
-  </si>
-  <si>
-    <t>renzoosanchez@bcp.com.pe</t>
-  </si>
-  <si>
-    <t>daniellarojas@bcp.com.pe</t>
-  </si>
-  <si>
-    <t>jorgemayorga@bcp.com.pe</t>
-  </si>
-  <si>
-    <t>jordinymontanez@bcp.com.pe</t>
-  </si>
-  <si>
-    <t>edwinmunoz@bcp.com.pe</t>
-  </si>
-  <si>
-    <t>washingtonquerol@bcp.com.pe</t>
-  </si>
-  <si>
-    <t>eduardosausurin@bcp.com.pe</t>
-  </si>
-  <si>
-    <t>tomasgonzalez@bcp.com.pe</t>
-  </si>
-  <si>
-    <t>edgardalva@bcp.com.pe</t>
-  </si>
-  <si>
-    <t>ivangarcia@bcp.com.pe</t>
-  </si>
-  <si>
-    <t>calderete@bcp.com.pe</t>
-  </si>
-  <si>
-    <t>T27125</t>
-  </si>
-  <si>
-    <t>T28462</t>
-  </si>
-  <si>
-    <t>Giancarlo Mairim Lopez Milla</t>
-  </si>
-  <si>
     <t>E15642</t>
   </si>
   <si>
-    <t>E16891</t>
+    <t>Martin</t>
   </si>
   <si>
-    <t>S00823</t>
+    <t>ricardoleon@bcp.com.pe</t>
   </si>
   <si>
-    <t>S02264</t>
-  </si>
-  <si>
-    <t>S19527</t>
-  </si>
-  <si>
-    <t>S62040</t>
-  </si>
-  <si>
-    <t>S92895</t>
-  </si>
-  <si>
-    <t>S97933</t>
-  </si>
-  <si>
-    <t>S98792</t>
-  </si>
-  <si>
-    <t>T00739</t>
-  </si>
-  <si>
-    <t>T03842</t>
-  </si>
-  <si>
-    <t>T04803</t>
-  </si>
-  <si>
-    <t>T10540</t>
-  </si>
-  <si>
-    <t>T12526</t>
-  </si>
-  <si>
-    <t>T17438</t>
-  </si>
-  <si>
-    <t>T19788</t>
-  </si>
-  <si>
-    <t>T24467</t>
-  </si>
-  <si>
-    <t>T30402</t>
-  </si>
-  <si>
-    <t>T30864</t>
-  </si>
-  <si>
-    <t>T31403</t>
-  </si>
-  <si>
-    <t>U21691</t>
-  </si>
-  <si>
-    <t>EMAIL_CAL</t>
-  </si>
-  <si>
-    <t>Joseph Campos Gilvonio</t>
-  </si>
-  <si>
-    <t>Sandy Paola Troncos Valencia</t>
-  </si>
-  <si>
-    <t>Junior Mariano Carrión Rodríguez</t>
-  </si>
-  <si>
-    <t>Diego David Bermudez Rodriguez</t>
-  </si>
-  <si>
-    <t>Diego Alonso Reyes Molina</t>
-  </si>
-  <si>
-    <t>Eloy Ivan Solano Coello</t>
-  </si>
-  <si>
-    <t>Andre Robinson Yataco Lermo</t>
-  </si>
-  <si>
-    <t>Christian Italo Espinoza Ochoa</t>
-  </si>
-  <si>
-    <t>Frans Juan Valdivia Chavez</t>
-  </si>
-  <si>
-    <t>Gustavo Elmer Meza Nuñez</t>
-  </si>
-  <si>
-    <t>T06901</t>
-  </si>
-  <si>
-    <t>victormespinoza@bcp.com.pe</t>
-  </si>
-  <si>
-    <t>Carlos</t>
-  </si>
-  <si>
-    <t>Diana</t>
-  </si>
-  <si>
-    <t>Silvana</t>
-  </si>
-  <si>
-    <t>Pedro</t>
-  </si>
-  <si>
-    <t>Fernando</t>
-  </si>
-  <si>
-    <t>Jeysson</t>
-  </si>
-  <si>
-    <t>Jhon</t>
-  </si>
-  <si>
-    <t>Franklin</t>
-  </si>
-  <si>
-    <t>Danilo</t>
-  </si>
-  <si>
-    <t>Christian</t>
-  </si>
-  <si>
-    <t>Jonathan</t>
-  </si>
-  <si>
-    <t>Victor</t>
-  </si>
-  <si>
-    <t>Renzo</t>
-  </si>
-  <si>
-    <t>Daniella</t>
-  </si>
-  <si>
-    <t>Jorge</t>
-  </si>
-  <si>
-    <t>Jordiny</t>
-  </si>
-  <si>
-    <t>Edwin</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>Eduardo</t>
-  </si>
-  <si>
-    <t>Tomás</t>
-  </si>
-  <si>
-    <t>Edgard</t>
-  </si>
-  <si>
-    <t>Ivan</t>
-  </si>
-  <si>
-    <t>Carmela</t>
-  </si>
-  <si>
-    <t>Luis Alfonso Quispe Aylas // Jefferson Francisco Santos Centeno</t>
-  </si>
-  <si>
-    <t>Wilcos Jhon Condor Pucuhuayla // Wilmar Rafael Muñoz Bravo</t>
-  </si>
-  <si>
-    <t>Juan Manuel Vasquez Fonseca // Jose Alonso Rosas Gamarra</t>
-  </si>
-  <si>
-    <t>Julio Nicolas Juarez Moran // Renny Donny Rodriguez Espinoza // Richar Marvin Fernández Vilchez</t>
-  </si>
-  <si>
-    <t>Eloy Eduardo Santillan Caballero // Pedro Rafael Bedoya Marrugo // Gonzalo Emilio Salas Seguel</t>
-  </si>
-  <si>
-    <t>Marcos Enrique Morales Angulo</t>
-  </si>
-  <si>
-    <t>Marco Boris Maquera Quispe</t>
-  </si>
-  <si>
-    <t>Washington Junior Querol De La Serna // Edgar Mauricio Salamanca Pedraza</t>
-  </si>
-  <si>
-    <t>Evelyn Daniela Sariego Rivera // Edwin Jhon Vásquez Mondragón // Giancarlo Renato Palomino Huallpa</t>
-  </si>
-  <si>
-    <t>Luis Fernando Chavez Lucich // Raul Gustavo Pacheco Nuñez // Gino Reyna Bellido</t>
-  </si>
-  <si>
-    <t>Rodol Harry Coa Limasca // Guadalupe Carranza Villa</t>
-  </si>
-  <si>
-    <t>Gustavo Adolfo Vielma Anaya // Giancarlo Alejandro Manzano Juárez</t>
-  </si>
-  <si>
-    <t>Eduardo Sausurin Nn // Daniel Hernando Olarte Bohorquez // Anggelo Marccelo Urso Goddard</t>
-  </si>
-  <si>
-    <t>mbravo@bcp.com.pe; valeriaroman@bcp.com.pe; jmazuelos@bcp.com.pe</t>
-  </si>
-  <si>
-    <t>daniellarojas@bcp.com.pe; valeriaroman@bcp.com.pe; mbravo@bcp.com.pe; jmazuelos@bcp.com.pe</t>
-  </si>
-  <si>
-    <t>renzoosanchez@bcp.com.pe; valeriaroman@bcp.com.pe; mbravo@bcp.com.pe; jmazuelos@bcp.com.pe</t>
-  </si>
-  <si>
-    <t>carlosmunozg@bcp.com.pe; valeriaroman@bcp.com.pe; mbravo@bcp.com.pe; jmazuelos@bcp.com.pe</t>
-  </si>
-  <si>
-    <t>calderete@bcp.com.pe; valeriaroman@bcp.com.pe; mbravo@bcp.com.pe; jmazuelos@bcp.com.pe</t>
-  </si>
-  <si>
-    <t>joelretuertoo@bcp.com.pe; valeriaroman@bcp.com.pe; mbravo@bcp.com.pe; jmazuelos@bcp.com.pe</t>
-  </si>
-  <si>
-    <t>tomasgonzalez@bcp.com.pe; valeriaroman@bcp.com.pe; mbravo@bcp.com.pe; jmazuelos@bcp.com.pe</t>
-  </si>
-  <si>
-    <t>PORCENTAJE_AVANCE</t>
+    <t>NOMBRE_COMPLETO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,6 +197,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -805,7 +507,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -848,11 +550,13 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -884,6 +588,7 @@
     <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hipervínculo" xfId="42" builtinId="8"/>
     <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1206,22 +911,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="95.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="93.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1229,429 +932,26 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" t="s">
-        <v>102</v>
-      </c>
-      <c r="E11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" t="s">
-        <v>105</v>
-      </c>
-      <c r="E14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" t="s">
-        <v>100</v>
-      </c>
-      <c r="E15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" t="s">
-        <v>104</v>
-      </c>
-      <c r="E21" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" t="s">
-        <v>106</v>
-      </c>
-      <c r="E22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" t="s">
-        <v>102</v>
-      </c>
-      <c r="E23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" t="s">
-        <v>102</v>
-      </c>
-      <c r="E24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" t="s">
-        <v>100</v>
-      </c>
-      <c r="E25" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{0449BE6A-286C-46D6-8E83-503B25AF5C4C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>